--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.570801666666667</v>
+        <v>0.5909176666666667</v>
       </c>
       <c r="H2">
-        <v>4.712405</v>
+        <v>1.772753</v>
       </c>
       <c r="I2">
-        <v>0.9976494164929963</v>
+        <v>0.9937758428931484</v>
       </c>
       <c r="J2">
-        <v>0.9976494164929962</v>
+        <v>0.9937758428931482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>2.47264602755</v>
+        <v>1.005700307457444</v>
       </c>
       <c r="R2">
-        <v>22.25381424795</v>
+        <v>9.051302767116999</v>
       </c>
       <c r="S2">
-        <v>0.02020103059550371</v>
+        <v>0.02092517159477661</v>
       </c>
       <c r="T2">
-        <v>0.02020103059550371</v>
+        <v>0.02092517159477661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.570801666666667</v>
+        <v>0.5909176666666667</v>
       </c>
       <c r="H3">
-        <v>4.712405</v>
+        <v>1.772753</v>
       </c>
       <c r="I3">
-        <v>0.9976494164929963</v>
+        <v>0.9937758428931484</v>
       </c>
       <c r="J3">
-        <v>0.9976494164929962</v>
+        <v>0.9937758428931482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>98.18130412084501</v>
+        <v>36.934686518697</v>
       </c>
       <c r="R3">
-        <v>883.6317370876051</v>
+        <v>332.412178668273</v>
       </c>
       <c r="S3">
-        <v>0.8021218995170299</v>
+        <v>0.7684840577974273</v>
       </c>
       <c r="T3">
-        <v>0.8021218995170299</v>
+        <v>0.7684840577974273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.5909176666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.772753</v>
+      </c>
+      <c r="I4">
+        <v>0.9937758428931484</v>
+      </c>
+      <c r="J4">
+        <v>0.9937758428931482</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.570801666666667</v>
-      </c>
-      <c r="H4">
-        <v>4.712405</v>
-      </c>
-      <c r="I4">
-        <v>0.9976494164929963</v>
-      </c>
-      <c r="J4">
-        <v>0.9976494164929962</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.2873043372383334</v>
+        <v>0.256380857119</v>
       </c>
       <c r="R4">
-        <v>2.585739035145</v>
+        <v>2.307427714071</v>
       </c>
       <c r="S4">
-        <v>0.002347219796973195</v>
+        <v>0.005334405676372918</v>
       </c>
       <c r="T4">
-        <v>0.002347219796973195</v>
+        <v>0.005334405676372918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.570801666666667</v>
+        <v>0.5909176666666667</v>
       </c>
       <c r="H5">
-        <v>4.712405</v>
+        <v>1.772753</v>
       </c>
       <c r="I5">
-        <v>0.9976494164929963</v>
+        <v>0.9937758428931484</v>
       </c>
       <c r="J5">
-        <v>0.9976494164929962</v>
+        <v>0.9937758428931482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>21.02565050163223</v>
+        <v>9.438363884384</v>
       </c>
       <c r="R5">
-        <v>189.23085451469</v>
+        <v>84.945274959456</v>
       </c>
       <c r="S5">
-        <v>0.171775419668415</v>
+        <v>0.1963799577172095</v>
       </c>
       <c r="T5">
-        <v>0.171775419668415</v>
+        <v>0.1963799577172095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.5909176666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.772753</v>
+      </c>
+      <c r="I6">
+        <v>0.9937758428931484</v>
+      </c>
+      <c r="J6">
+        <v>0.9937758428931482</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.570801666666667</v>
-      </c>
-      <c r="H6">
-        <v>4.712405</v>
-      </c>
-      <c r="I6">
-        <v>0.9976494164929963</v>
-      </c>
-      <c r="J6">
-        <v>0.9976494164929962</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.1473532391461111</v>
+        <v>0.1274717741905556</v>
       </c>
       <c r="R6">
-        <v>1.326179152315</v>
+        <v>1.147245967715</v>
       </c>
       <c r="S6">
-        <v>0.001203846915074452</v>
+        <v>0.002652250107361988</v>
       </c>
       <c r="T6">
-        <v>0.001203846915074452</v>
+        <v>0.002652250107361988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.011103</v>
       </c>
       <c r="I7">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851674</v>
       </c>
       <c r="J7">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>0.00582585513</v>
+        <v>0.006298841696333332</v>
       </c>
       <c r="R7">
-        <v>0.05243269617</v>
+        <v>0.056689575267</v>
       </c>
       <c r="S7">
-        <v>4.759608792153427E-05</v>
+        <v>0.0001310572765731067</v>
       </c>
       <c r="T7">
-        <v>4.759608792153427E-05</v>
+        <v>0.0001310572765731067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.011103</v>
       </c>
       <c r="I8">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851674</v>
       </c>
       <c r="J8">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851673</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>0.231327107847</v>
@@ -948,10 +948,10 @@
         <v>2.081943970623</v>
       </c>
       <c r="S8">
-        <v>0.001889896868019108</v>
+        <v>0.004813123144467862</v>
       </c>
       <c r="T8">
-        <v>0.001889896868019108</v>
+        <v>0.004813123144467862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.011103</v>
       </c>
       <c r="I9">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851674</v>
       </c>
       <c r="J9">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851673</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.000676924003</v>
+        <v>0.001605749169</v>
       </c>
       <c r="R9">
-        <v>0.006092316027</v>
+        <v>0.014451742521</v>
       </c>
       <c r="S9">
-        <v>5.530335657863317E-06</v>
+        <v>3.341012889261421E-05</v>
       </c>
       <c r="T9">
-        <v>5.530335657863317E-06</v>
+        <v>3.341012889261421E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.011103</v>
       </c>
       <c r="I10">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851674</v>
       </c>
       <c r="J10">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851673</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>0.04953899283266667</v>
+        <v>0.059113793184</v>
       </c>
       <c r="R10">
-        <v>0.445850935494</v>
+        <v>0.5320241386560001</v>
       </c>
       <c r="S10">
-        <v>0.0004047238054832748</v>
+        <v>0.001229955143516427</v>
       </c>
       <c r="T10">
-        <v>0.0004047238054832748</v>
+        <v>0.001229955143516427</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.011103</v>
       </c>
       <c r="I11">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851674</v>
       </c>
       <c r="J11">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851673</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.0003471821743333333</v>
+        <v>0.0007983735516666667</v>
       </c>
       <c r="R11">
-        <v>0.003124639569</v>
+        <v>0.007185361965</v>
       </c>
       <c r="S11">
-        <v>2.836409921912832E-06</v>
+        <v>1.661141340166405E-05</v>
       </c>
       <c r="T11">
-        <v>2.836409921912832E-06</v>
+        <v>1.661141340166405E-05</v>
       </c>
     </row>
   </sheetData>
